--- a/excel_demo/excel_data.xlsx
+++ b/excel_demo/excel_data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\十一\PycharmProjects\testcase\excel_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B5C628-6B64-413A-AAA8-E5F295CB5C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC83D77-60D5-4F0B-9D69-161DC32AB481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57403FC3-5983-4A65-9F67-B8A3000CA469}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="百度test" sheetId="1" r:id="rId1"/>
+    <sheet name="DB商城注册流程" sheetId="2" r:id="rId2"/>
+    <sheet name="DB商城登陆流程" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +49,6 @@
     <t>input</t>
   </si>
   <si>
-    <t>输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>browser</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,10 +66,6 @@
     <t>wait</t>
   </si>
   <si>
-    <t>元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定位方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,60 +78,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入查询条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击百度一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器最大化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开谷歌浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>kw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>su</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.baidu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认打开谷歌浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入百度地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待3秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入查询条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击百度一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_web</t>
+    <t>screenshot</t>
+  </si>
+  <si>
+    <t>屏幕截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="site-topbar"]/div/div[2]/ul/li[4]/a</t>
+  </si>
+  <si>
+    <t>点击注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>邓黎和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入会员名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPassword</t>
+  </si>
+  <si>
+    <t>054926wd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入会员密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userComPassword</t>
+  </si>
+  <si>
+    <t>输入确认密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userEmail</t>
+  </si>
+  <si>
+    <t>123456@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入电子邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agreement</t>
+  </si>
+  <si>
+    <t>点击注册协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="user-register-form"]/div[6]/div/button</t>
+  </si>
+  <si>
+    <t>点击提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="site-topbar"]/div/div[2]/ul/li[3]/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="user-login-form"]/div[4]/div/button[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击会员登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.111.133:9090/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>浏览器最大化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -517,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F00BB1-E314-477E-9AE8-26FFBC54FBAA}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -538,16 +663,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -555,100 +680,103 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -656,32 +784,49 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
         <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -691,4 +836,450 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F636F09-770A-4AB5-A25E-D26D09CDD0C4}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{47091968-5878-4FBD-B5A6-521925E07FEC}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{D2D09A66-0B56-46BC-878C-131CB0137381}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913EBB42-D093-4359-91C2-4CE2869DF251}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{DC0A9D13-53A5-4B81-8A82-9BF17271F54B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel_demo/excel_data.xlsx
+++ b/excel_demo/excel_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\十一\PycharmProjects\testcase\excel_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC83D77-60D5-4F0B-9D69-161DC32AB481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2F528F-49F3-42C9-B6D4-ADC01AFA7898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57403FC3-5983-4A65-9F67-B8A3000CA469}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{57403FC3-5983-4A65-9F67-B8A3000CA469}"/>
   </bookViews>
   <sheets>
     <sheet name="百度test" sheetId="1" r:id="rId1"/>
     <sheet name="DB商城注册流程" sheetId="2" r:id="rId2"/>
-    <sheet name="DB商城登陆流程" sheetId="3" r:id="rId3"/>
+    <sheet name="DB商城登陆流程0" sheetId="3" r:id="rId3"/>
+    <sheet name="DB商城登陆流程1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="61">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +264,10 @@
   </si>
   <si>
     <t>浏览器最大化</t>
+  </si>
+  <si>
+    <t>054926wdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -644,7 +649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F00BB1-E314-477E-9AE8-26FFBC54FBAA}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1095,7 +1100,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1282,4 +1287,198 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E59DD7E-F3AF-417E-8148-C5FF2237C096}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{937A334D-7838-4793-B0C2-2CC63274BCFC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel_demo/excel_data.xlsx
+++ b/excel_demo/excel_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\十一\PycharmProjects\testcase\excel_demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2F528F-49F3-42C9-B6D4-ADC01AFA7898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFC9D54-4BC2-4C76-BABF-5B10982F72A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{57403FC3-5983-4A65-9F67-B8A3000CA469}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57403FC3-5983-4A65-9F67-B8A3000CA469}"/>
   </bookViews>
   <sheets>
     <sheet name="百度test" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>su</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,6 +263,10 @@
   </si>
   <si>
     <t>054926wdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F00BB1-E314-477E-9AE8-26FFBC54FBAA}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -671,10 +671,10 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -691,7 +691,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -699,10 +699,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -713,10 +713,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -724,13 +724,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -741,16 +741,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -758,13 +758,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -775,13 +775,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -789,13 +789,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -803,10 +803,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
         <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -817,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -869,10 +869,10 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -889,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -897,11 +897,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -912,10 +912,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -923,16 +923,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -940,19 +940,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -960,19 +960,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -980,19 +980,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1000,19 +1000,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1020,16 +1020,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1037,16 +1037,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1054,13 +1054,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1068,10 +1068,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
         <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1079,10 +1079,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1121,10 +1121,10 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1149,11 +1149,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1164,10 +1164,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1175,16 +1175,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
         <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1192,19 +1192,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1212,19 +1212,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1232,16 +1232,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
         <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1249,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1263,10 +1263,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
         <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1274,10 +1274,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1293,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E59DD7E-F3AF-417E-8148-C5FF2237C096}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1315,10 +1315,10 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -1335,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1343,11 +1343,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1358,10 +1358,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1369,16 +1369,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
         <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1386,19 +1386,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1406,19 +1406,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1426,16 +1426,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
         <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1443,13 +1443,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1457,10 +1457,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
         <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1468,10 +1468,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
